--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4913"/>
+  <dimension ref="A1:F4916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98711,6 +98711,66 @@
         <v>111300</v>
       </c>
     </row>
+    <row r="4914">
+      <c r="A4914" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B4914" t="n">
+        <v>1.11972</v>
+      </c>
+      <c r="C4914" t="n">
+        <v>1.12291</v>
+      </c>
+      <c r="D4914" t="n">
+        <v>1.11184</v>
+      </c>
+      <c r="E4914" t="n">
+        <v>1.11291</v>
+      </c>
+      <c r="F4914" t="n">
+        <v>463750</v>
+      </c>
+    </row>
+    <row r="4915">
+      <c r="A4915" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B4915" t="n">
+        <v>1.11291</v>
+      </c>
+      <c r="C4915" t="n">
+        <v>1.11449</v>
+      </c>
+      <c r="D4915" t="n">
+        <v>1.11078</v>
+      </c>
+      <c r="E4915" t="n">
+        <v>1.11245</v>
+      </c>
+      <c r="F4915" t="n">
+        <v>216055</v>
+      </c>
+    </row>
+    <row r="4916">
+      <c r="A4916" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B4916" t="n">
+        <v>1.1133</v>
+      </c>
+      <c r="C4916" t="n">
+        <v>1.11469</v>
+      </c>
+      <c r="D4916" t="n">
+        <v>1.10656</v>
+      </c>
+      <c r="E4916" t="n">
+        <v>1.11007</v>
+      </c>
+      <c r="F4916" t="n">
+        <v>142684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4916"/>
+  <dimension ref="A1:F4925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98771,6 +98771,186 @@
         <v>142684</v>
       </c>
     </row>
+    <row r="4917">
+      <c r="A4917" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B4917" t="n">
+        <v>1.1133</v>
+      </c>
+      <c r="C4917" t="n">
+        <v>1.11469</v>
+      </c>
+      <c r="D4917" t="n">
+        <v>1.10601</v>
+      </c>
+      <c r="E4917" t="n">
+        <v>1.10638</v>
+      </c>
+      <c r="F4917" t="n">
+        <v>248302</v>
+      </c>
+    </row>
+    <row r="4918">
+      <c r="A4918" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B4918" t="n">
+        <v>1.10638</v>
+      </c>
+      <c r="C4918" t="n">
+        <v>1.10868</v>
+      </c>
+      <c r="D4918" t="n">
+        <v>1.10204</v>
+      </c>
+      <c r="E4918" t="n">
+        <v>1.10482</v>
+      </c>
+      <c r="F4918" t="n">
+        <v>193454</v>
+      </c>
+    </row>
+    <row r="4919">
+      <c r="A4919" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B4919" t="n">
+        <v>1.10482</v>
+      </c>
+      <c r="C4919" t="n">
+        <v>1.11067</v>
+      </c>
+      <c r="D4919" t="n">
+        <v>1.10378</v>
+      </c>
+      <c r="E4919" t="n">
+        <v>1.10857</v>
+      </c>
+      <c r="F4919" t="n">
+        <v>268423</v>
+      </c>
+    </row>
+    <row r="4920">
+      <c r="A4920" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B4920" t="n">
+        <v>1.10857</v>
+      </c>
+      <c r="C4920" t="n">
+        <v>1.11497</v>
+      </c>
+      <c r="D4920" t="n">
+        <v>1.09657</v>
+      </c>
+      <c r="E4920" t="n">
+        <v>1.09752</v>
+      </c>
+      <c r="F4920" t="n">
+        <v>691486</v>
+      </c>
+    </row>
+    <row r="4921">
+      <c r="A4921" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B4921" t="n">
+        <v>1.09752</v>
+      </c>
+      <c r="C4921" t="n">
+        <v>1.10475</v>
+      </c>
+      <c r="D4921" t="n">
+        <v>1.09434</v>
+      </c>
+      <c r="E4921" t="n">
+        <v>1.1013</v>
+      </c>
+      <c r="F4921" t="n">
+        <v>345444</v>
+      </c>
+    </row>
+    <row r="4922">
+      <c r="A4922" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B4922" t="n">
+        <v>1.10193</v>
+      </c>
+      <c r="C4922" t="n">
+        <v>1.10458</v>
+      </c>
+      <c r="D4922" t="n">
+        <v>1.09934</v>
+      </c>
+      <c r="E4922" t="n">
+        <v>1.09967</v>
+      </c>
+      <c r="F4922" t="n">
+        <v>232724</v>
+      </c>
+    </row>
+    <row r="4923">
+      <c r="A4923" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B4923" t="n">
+        <v>1.09967</v>
+      </c>
+      <c r="C4923" t="n">
+        <v>1.1003</v>
+      </c>
+      <c r="D4923" t="n">
+        <v>1.09523</v>
+      </c>
+      <c r="E4923" t="n">
+        <v>1.09843</v>
+      </c>
+      <c r="F4923" t="n">
+        <v>218891</v>
+      </c>
+    </row>
+    <row r="4924">
+      <c r="A4924" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B4924" t="n">
+        <v>1.09843</v>
+      </c>
+      <c r="C4924" t="n">
+        <v>1.10199</v>
+      </c>
+      <c r="D4924" t="n">
+        <v>1.09178</v>
+      </c>
+      <c r="E4924" t="n">
+        <v>1.09378</v>
+      </c>
+      <c r="F4924" t="n">
+        <v>274551</v>
+      </c>
+    </row>
+    <row r="4925">
+      <c r="A4925" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B4925" t="n">
+        <v>1.09378</v>
+      </c>
+      <c r="C4925" t="n">
+        <v>1.09561</v>
+      </c>
+      <c r="D4925" t="n">
+        <v>1.09122</v>
+      </c>
+      <c r="E4925" t="n">
+        <v>1.09276</v>
+      </c>
+      <c r="F4925" t="n">
+        <v>181851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4925"/>
+  <dimension ref="A1:F4927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98951,6 +98951,46 @@
         <v>181851</v>
       </c>
     </row>
+    <row r="4926">
+      <c r="A4926" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B4926" t="n">
+        <v>1.09378</v>
+      </c>
+      <c r="C4926" t="n">
+        <v>1.09629</v>
+      </c>
+      <c r="D4926" t="n">
+        <v>1.09122</v>
+      </c>
+      <c r="E4926" t="n">
+        <v>1.09491</v>
+      </c>
+      <c r="F4926" t="n">
+        <v>282036</v>
+      </c>
+    </row>
+    <row r="4927">
+      <c r="A4927" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B4927" t="n">
+        <v>1.09491</v>
+      </c>
+      <c r="C4927" t="n">
+        <v>1.09616</v>
+      </c>
+      <c r="D4927" t="n">
+        <v>1.09403</v>
+      </c>
+      <c r="E4927" t="n">
+        <v>1.09513</v>
+      </c>
+      <c r="F4927" t="n">
+        <v>50477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4927"/>
+  <dimension ref="A1:F4941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98991,6 +98991,286 @@
         <v>50477</v>
       </c>
     </row>
+    <row r="4928">
+      <c r="A4928" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B4928" t="n">
+        <v>1.09491</v>
+      </c>
+      <c r="C4928" t="n">
+        <v>1.10419</v>
+      </c>
+      <c r="D4928" t="n">
+        <v>1.09332</v>
+      </c>
+      <c r="E4928" t="n">
+        <v>1.1008</v>
+      </c>
+      <c r="F4928" t="n">
+        <v>275336</v>
+      </c>
+    </row>
+    <row r="4929">
+      <c r="A4929" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B4929" t="n">
+        <v>1.1008</v>
+      </c>
+      <c r="C4929" t="n">
+        <v>1.10166</v>
+      </c>
+      <c r="D4929" t="n">
+        <v>1.09653</v>
+      </c>
+      <c r="E4929" t="n">
+        <v>1.10023</v>
+      </c>
+      <c r="F4929" t="n">
+        <v>182895</v>
+      </c>
+    </row>
+    <row r="4930">
+      <c r="A4930" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B4930" t="n">
+        <v>1.10023</v>
+      </c>
+      <c r="C4930" t="n">
+        <v>1.10111</v>
+      </c>
+      <c r="D4930" t="n">
+        <v>1.09289</v>
+      </c>
+      <c r="E4930" t="n">
+        <v>1.09563</v>
+      </c>
+      <c r="F4930" t="n">
+        <v>227206</v>
+      </c>
+    </row>
+    <row r="4931">
+      <c r="A4931" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B4931" t="n">
+        <v>1.09563</v>
+      </c>
+      <c r="C4931" t="n">
+        <v>1.09953</v>
+      </c>
+      <c r="D4931" t="n">
+        <v>1.09494</v>
+      </c>
+      <c r="E4931" t="n">
+        <v>1.09738</v>
+      </c>
+      <c r="F4931" t="n">
+        <v>199159</v>
+      </c>
+    </row>
+    <row r="4932">
+      <c r="A4932" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B4932" t="n">
+        <v>1.09738</v>
+      </c>
+      <c r="C4932" t="n">
+        <v>1.10649</v>
+      </c>
+      <c r="D4932" t="n">
+        <v>1.09672</v>
+      </c>
+      <c r="E4932" t="n">
+        <v>1.09808</v>
+      </c>
+      <c r="F4932" t="n">
+        <v>281872</v>
+      </c>
+    </row>
+    <row r="4933">
+      <c r="A4933" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B4933" t="n">
+        <v>1.09808</v>
+      </c>
+      <c r="C4933" t="n">
+        <v>1.10049</v>
+      </c>
+      <c r="D4933" t="n">
+        <v>1.09428</v>
+      </c>
+      <c r="E4933" t="n">
+        <v>1.09445</v>
+      </c>
+      <c r="F4933" t="n">
+        <v>232342</v>
+      </c>
+    </row>
+    <row r="4934">
+      <c r="A4934" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B4934" t="n">
+        <v>1.0951</v>
+      </c>
+      <c r="C4934" t="n">
+        <v>1.09602</v>
+      </c>
+      <c r="D4934" t="n">
+        <v>1.08746</v>
+      </c>
+      <c r="E4934" t="n">
+        <v>1.09056</v>
+      </c>
+      <c r="F4934" t="n">
+        <v>231967</v>
+      </c>
+    </row>
+    <row r="4935">
+      <c r="A4935" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B4935" t="n">
+        <v>1.09056</v>
+      </c>
+      <c r="C4935" t="n">
+        <v>1.09524</v>
+      </c>
+      <c r="D4935" t="n">
+        <v>1.08964</v>
+      </c>
+      <c r="E4935" t="n">
+        <v>1.09014</v>
+      </c>
+      <c r="F4935" t="n">
+        <v>286931</v>
+      </c>
+    </row>
+    <row r="4936">
+      <c r="A4936" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B4936" t="n">
+        <v>1.09014</v>
+      </c>
+      <c r="C4936" t="n">
+        <v>1.09345</v>
+      </c>
+      <c r="D4936" t="n">
+        <v>1.08714</v>
+      </c>
+      <c r="E4936" t="n">
+        <v>1.08792</v>
+      </c>
+      <c r="F4936" t="n">
+        <v>257202</v>
+      </c>
+    </row>
+    <row r="4937">
+      <c r="A4937" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B4937" t="n">
+        <v>1.08792</v>
+      </c>
+      <c r="C4937" t="n">
+        <v>1.09183</v>
+      </c>
+      <c r="D4937" t="n">
+        <v>1.08563</v>
+      </c>
+      <c r="E4937" t="n">
+        <v>1.0872</v>
+      </c>
+      <c r="F4937" t="n">
+        <v>523188</v>
+      </c>
+    </row>
+    <row r="4938">
+      <c r="A4938" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B4938" t="n">
+        <v>1.0872</v>
+      </c>
+      <c r="C4938" t="n">
+        <v>1.08938</v>
+      </c>
+      <c r="D4938" t="n">
+        <v>1.08448</v>
+      </c>
+      <c r="E4938" t="n">
+        <v>1.08682</v>
+      </c>
+      <c r="F4938" t="n">
+        <v>239598</v>
+      </c>
+    </row>
+    <row r="4939">
+      <c r="A4939" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B4939" t="n">
+        <v>1.08659</v>
+      </c>
+      <c r="C4939" t="n">
+        <v>1.09137</v>
+      </c>
+      <c r="D4939" t="n">
+        <v>1.08659</v>
+      </c>
+      <c r="E4939" t="n">
+        <v>1.08956</v>
+      </c>
+      <c r="F4939" t="n">
+        <v>205521</v>
+      </c>
+    </row>
+    <row r="4940">
+      <c r="A4940" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B4940" t="n">
+        <v>1.08956</v>
+      </c>
+      <c r="C4940" t="n">
+        <v>1.09304</v>
+      </c>
+      <c r="D4940" t="n">
+        <v>1.08328</v>
+      </c>
+      <c r="E4940" t="n">
+        <v>1.08453</v>
+      </c>
+      <c r="F4940" t="n">
+        <v>211970</v>
+      </c>
+    </row>
+    <row r="4941">
+      <c r="A4941" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B4941" t="n">
+        <v>1.08453</v>
+      </c>
+      <c r="C4941" t="n">
+        <v>1.08577</v>
+      </c>
+      <c r="D4941" t="n">
+        <v>1.08414</v>
+      </c>
+      <c r="E4941" t="n">
+        <v>1.08525</v>
+      </c>
+      <c r="F4941" t="n">
+        <v>22784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4941"/>
+  <dimension ref="A1:F4948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99271,6 +99271,146 @@
         <v>22784</v>
       </c>
     </row>
+    <row r="4942">
+      <c r="A4942" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B4942" t="n">
+        <v>1.08629</v>
+      </c>
+      <c r="C4942" t="n">
+        <v>1.08766</v>
+      </c>
+      <c r="D4942" t="n">
+        <v>1.08049</v>
+      </c>
+      <c r="E4942" t="n">
+        <v>1.08103</v>
+      </c>
+      <c r="F4942" t="n">
+        <v>439374</v>
+      </c>
+    </row>
+    <row r="4943">
+      <c r="A4943" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B4943" t="n">
+        <v>1.08103</v>
+      </c>
+      <c r="C4943" t="n">
+        <v>1.08417</v>
+      </c>
+      <c r="D4943" t="n">
+        <v>1.07658</v>
+      </c>
+      <c r="E4943" t="n">
+        <v>1.07946</v>
+      </c>
+      <c r="F4943" t="n">
+        <v>264566</v>
+      </c>
+    </row>
+    <row r="4944">
+      <c r="A4944" s="2" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B4944" t="n">
+        <v>1.07948</v>
+      </c>
+      <c r="C4944" t="n">
+        <v>1.08222</v>
+      </c>
+      <c r="D4944" t="n">
+        <v>1.0792</v>
+      </c>
+      <c r="E4944" t="n">
+        <v>1.08188</v>
+      </c>
+      <c r="F4944" t="n">
+        <v>173395</v>
+      </c>
+    </row>
+    <row r="4945">
+      <c r="A4945" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B4945" t="n">
+        <v>1.08188</v>
+      </c>
+      <c r="C4945" t="n">
+        <v>1.08919</v>
+      </c>
+      <c r="D4945" t="n">
+        <v>1.0782</v>
+      </c>
+      <c r="E4945" t="n">
+        <v>1.08798</v>
+      </c>
+      <c r="F4945" t="n">
+        <v>234544</v>
+      </c>
+    </row>
+    <row r="4946">
+      <c r="A4946" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B4946" t="n">
+        <v>1.08798</v>
+      </c>
+      <c r="C4946" t="n">
+        <v>1.09454</v>
+      </c>
+      <c r="D4946" t="n">
+        <v>1.08551</v>
+      </c>
+      <c r="E4946" t="n">
+        <v>1.09231</v>
+      </c>
+      <c r="F4946" t="n">
+        <v>231448</v>
+      </c>
+    </row>
+    <row r="4947">
+      <c r="A4947" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B4947" t="n">
+        <v>1.09231</v>
+      </c>
+      <c r="C4947" t="n">
+        <v>1.09395</v>
+      </c>
+      <c r="D4947" t="n">
+        <v>1.0835</v>
+      </c>
+      <c r="E4947" t="n">
+        <v>1.08433</v>
+      </c>
+      <c r="F4947" t="n">
+        <v>229517</v>
+      </c>
+    </row>
+    <row r="4948">
+      <c r="A4948" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B4948" t="n">
+        <v>1.08433</v>
+      </c>
+      <c r="C4948" t="n">
+        <v>1.0882</v>
+      </c>
+      <c r="D4948" t="n">
+        <v>1.0772</v>
+      </c>
+      <c r="E4948" t="n">
+        <v>1.07731</v>
+      </c>
+      <c r="F4948" t="n">
+        <v>252589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4948"/>
+  <dimension ref="A1:F4987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99411,6 +99411,786 @@
         <v>252589</v>
       </c>
     </row>
+    <row r="4949">
+      <c r="A4949" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B4949" t="n">
+        <v>1.09231</v>
+      </c>
+      <c r="C4949" t="n">
+        <v>1.09395</v>
+      </c>
+      <c r="D4949" t="n">
+        <v>1.0835</v>
+      </c>
+      <c r="E4949" t="n">
+        <v>1.08433</v>
+      </c>
+      <c r="F4949" t="n">
+        <v>229549</v>
+      </c>
+    </row>
+    <row r="4950">
+      <c r="A4950" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B4950" t="n">
+        <v>1.08433</v>
+      </c>
+      <c r="C4950" t="n">
+        <v>1.0882</v>
+      </c>
+      <c r="D4950" t="n">
+        <v>1.0772</v>
+      </c>
+      <c r="E4950" t="n">
+        <v>1.07731</v>
+      </c>
+      <c r="F4950" t="n">
+        <v>252650</v>
+      </c>
+    </row>
+    <row r="4951">
+      <c r="A4951" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B4951" t="n">
+        <v>1.07765</v>
+      </c>
+      <c r="C4951" t="n">
+        <v>1.08088</v>
+      </c>
+      <c r="D4951" t="n">
+        <v>1.07716</v>
+      </c>
+      <c r="E4951" t="n">
+        <v>1.07938</v>
+      </c>
+      <c r="F4951" t="n">
+        <v>100156</v>
+      </c>
+    </row>
+    <row r="4952">
+      <c r="A4952" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B4952" t="n">
+        <v>1.07938</v>
+      </c>
+      <c r="C4952" t="n">
+        <v>1.07983</v>
+      </c>
+      <c r="D4952" t="n">
+        <v>1.07059</v>
+      </c>
+      <c r="E4952" t="n">
+        <v>1.0722</v>
+      </c>
+      <c r="F4952" t="n">
+        <v>214819</v>
+      </c>
+    </row>
+    <row r="4953">
+      <c r="A4953" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B4953" t="n">
+        <v>1.0722</v>
+      </c>
+      <c r="C4953" t="n">
+        <v>1.07488</v>
+      </c>
+      <c r="D4953" t="n">
+        <v>1.07023</v>
+      </c>
+      <c r="E4953" t="n">
+        <v>1.07269</v>
+      </c>
+      <c r="F4953" t="n">
+        <v>213967</v>
+      </c>
+    </row>
+    <row r="4954">
+      <c r="A4954" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B4954" t="n">
+        <v>1.07269</v>
+      </c>
+      <c r="C4954" t="n">
+        <v>1.07317</v>
+      </c>
+      <c r="D4954" t="n">
+        <v>1.06858</v>
+      </c>
+      <c r="E4954" t="n">
+        <v>1.06957</v>
+      </c>
+      <c r="F4954" t="n">
+        <v>186203</v>
+      </c>
+    </row>
+    <row r="4955">
+      <c r="A4955" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B4955" t="n">
+        <v>1.06957</v>
+      </c>
+      <c r="C4955" t="n">
+        <v>1.07438</v>
+      </c>
+      <c r="D4955" t="n">
+        <v>1.0694</v>
+      </c>
+      <c r="E4955" t="n">
+        <v>1.06982</v>
+      </c>
+      <c r="F4955" t="n">
+        <v>177503</v>
+      </c>
+    </row>
+    <row r="4956">
+      <c r="A4956" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B4956" t="n">
+        <v>1.07146</v>
+      </c>
+      <c r="C4956" t="n">
+        <v>1.07593</v>
+      </c>
+      <c r="D4956" t="n">
+        <v>1.07072</v>
+      </c>
+      <c r="E4956" t="n">
+        <v>1.07502</v>
+      </c>
+      <c r="F4956" t="n">
+        <v>196154</v>
+      </c>
+    </row>
+    <row r="4957">
+      <c r="A4957" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B4957" t="n">
+        <v>1.07502</v>
+      </c>
+      <c r="C4957" t="n">
+        <v>1.07679</v>
+      </c>
+      <c r="D4957" t="n">
+        <v>1.07055</v>
+      </c>
+      <c r="E4957" t="n">
+        <v>1.07538</v>
+      </c>
+      <c r="F4957" t="n">
+        <v>173063</v>
+      </c>
+    </row>
+    <row r="4958">
+      <c r="A4958" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B4958" t="n">
+        <v>1.07538</v>
+      </c>
+      <c r="C4958" t="n">
+        <v>1.07649</v>
+      </c>
+      <c r="D4958" t="n">
+        <v>1.07107</v>
+      </c>
+      <c r="E4958" t="n">
+        <v>1.07292</v>
+      </c>
+      <c r="F4958" t="n">
+        <v>243270</v>
+      </c>
+    </row>
+    <row r="4959">
+      <c r="A4959" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B4959" t="n">
+        <v>1.07292</v>
+      </c>
+      <c r="C4959" t="n">
+        <v>1.07521</v>
+      </c>
+      <c r="D4959" t="n">
+        <v>1.06318</v>
+      </c>
+      <c r="E4959" t="n">
+        <v>1.06429</v>
+      </c>
+      <c r="F4959" t="n">
+        <v>265028</v>
+      </c>
+    </row>
+    <row r="4960">
+      <c r="A4960" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B4960" t="n">
+        <v>1.06429</v>
+      </c>
+      <c r="C4960" t="n">
+        <v>1.06878</v>
+      </c>
+      <c r="D4960" t="n">
+        <v>1.06333</v>
+      </c>
+      <c r="E4960" t="n">
+        <v>1.06596</v>
+      </c>
+      <c r="F4960" t="n">
+        <v>199177</v>
+      </c>
+    </row>
+    <row r="4961">
+      <c r="A4961" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B4961" t="n">
+        <v>1.06598</v>
+      </c>
+      <c r="C4961" t="n">
+        <v>1.06986</v>
+      </c>
+      <c r="D4961" t="n">
+        <v>1.06545</v>
+      </c>
+      <c r="E4961" t="n">
+        <v>1.06915</v>
+      </c>
+      <c r="F4961" t="n">
+        <v>150744</v>
+      </c>
+    </row>
+    <row r="4962">
+      <c r="A4962" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B4962" t="n">
+        <v>1.06915</v>
+      </c>
+      <c r="C4962" t="n">
+        <v>1.07179</v>
+      </c>
+      <c r="D4962" t="n">
+        <v>1.0675</v>
+      </c>
+      <c r="E4962" t="n">
+        <v>1.06792</v>
+      </c>
+      <c r="F4962" t="n">
+        <v>164676</v>
+      </c>
+    </row>
+    <row r="4963">
+      <c r="A4963" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B4963" t="n">
+        <v>1.06792</v>
+      </c>
+      <c r="C4963" t="n">
+        <v>1.07368</v>
+      </c>
+      <c r="D4963" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="E4963" t="n">
+        <v>1.06605</v>
+      </c>
+      <c r="F4963" t="n">
+        <v>227339</v>
+      </c>
+    </row>
+    <row r="4964">
+      <c r="A4964" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B4964" t="n">
+        <v>1.06605</v>
+      </c>
+      <c r="C4964" t="n">
+        <v>1.06736</v>
+      </c>
+      <c r="D4964" t="n">
+        <v>1.06167</v>
+      </c>
+      <c r="E4964" t="n">
+        <v>1.06579</v>
+      </c>
+      <c r="F4964" t="n">
+        <v>252047</v>
+      </c>
+    </row>
+    <row r="4965">
+      <c r="A4965" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B4965" t="n">
+        <v>1.06579</v>
+      </c>
+      <c r="C4965" t="n">
+        <v>1.06717</v>
+      </c>
+      <c r="D4965" t="n">
+        <v>1.06147</v>
+      </c>
+      <c r="E4965" t="n">
+        <v>1.06452</v>
+      </c>
+      <c r="F4965" t="n">
+        <v>206750</v>
+      </c>
+    </row>
+    <row r="4966">
+      <c r="A4966" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B4966" t="n">
+        <v>1.06452</v>
+      </c>
+      <c r="C4966" t="n">
+        <v>1.06556</v>
+      </c>
+      <c r="D4966" t="n">
+        <v>1.05751</v>
+      </c>
+      <c r="E4966" t="n">
+        <v>1.0593</v>
+      </c>
+      <c r="F4966" t="n">
+        <v>183573</v>
+      </c>
+    </row>
+    <row r="4967">
+      <c r="A4967" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B4967" t="n">
+        <v>1.0593</v>
+      </c>
+      <c r="C4967" t="n">
+        <v>1.06091</v>
+      </c>
+      <c r="D4967" t="n">
+        <v>1.0562</v>
+      </c>
+      <c r="E4967" t="n">
+        <v>1.05722</v>
+      </c>
+      <c r="F4967" t="n">
+        <v>190290</v>
+      </c>
+    </row>
+    <row r="4968">
+      <c r="A4968" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B4968" t="n">
+        <v>1.05722</v>
+      </c>
+      <c r="C4968" t="n">
+        <v>1.05743</v>
+      </c>
+      <c r="D4968" t="n">
+        <v>1.04881</v>
+      </c>
+      <c r="E4968" t="n">
+        <v>1.05022</v>
+      </c>
+      <c r="F4968" t="n">
+        <v>231420</v>
+      </c>
+    </row>
+    <row r="4969">
+      <c r="A4969" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B4969" t="n">
+        <v>1.05022</v>
+      </c>
+      <c r="C4969" t="n">
+        <v>1.05788</v>
+      </c>
+      <c r="D4969" t="n">
+        <v>1.04909</v>
+      </c>
+      <c r="E4969" t="n">
+        <v>1.05654</v>
+      </c>
+      <c r="F4969" t="n">
+        <v>272318</v>
+      </c>
+    </row>
+    <row r="4970">
+      <c r="A4970" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B4970" t="n">
+        <v>1.05654</v>
+      </c>
+      <c r="C4970" t="n">
+        <v>1.06171</v>
+      </c>
+      <c r="D4970" t="n">
+        <v>1.05565</v>
+      </c>
+      <c r="E4970" t="n">
+        <v>1.05739</v>
+      </c>
+      <c r="F4970" t="n">
+        <v>264413</v>
+      </c>
+    </row>
+    <row r="4971">
+      <c r="A4971" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B4971" t="n">
+        <v>1.05661</v>
+      </c>
+      <c r="C4971" t="n">
+        <v>1.05918</v>
+      </c>
+      <c r="D4971" t="n">
+        <v>1.04766</v>
+      </c>
+      <c r="E4971" t="n">
+        <v>1.04771</v>
+      </c>
+      <c r="F4971" t="n">
+        <v>240473</v>
+      </c>
+    </row>
+    <row r="4972">
+      <c r="A4972" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B4972" t="n">
+        <v>1.04771</v>
+      </c>
+      <c r="C4972" t="n">
+        <v>1.04935</v>
+      </c>
+      <c r="D4972" t="n">
+        <v>1.04482</v>
+      </c>
+      <c r="E4972" t="n">
+        <v>1.04663</v>
+      </c>
+      <c r="F4972" t="n">
+        <v>291991</v>
+      </c>
+    </row>
+    <row r="4973">
+      <c r="A4973" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B4973" t="n">
+        <v>1.04663</v>
+      </c>
+      <c r="C4973" t="n">
+        <v>1.05322</v>
+      </c>
+      <c r="D4973" t="n">
+        <v>1.04513</v>
+      </c>
+      <c r="E4973" t="n">
+        <v>1.05036</v>
+      </c>
+      <c r="F4973" t="n">
+        <v>273998</v>
+      </c>
+    </row>
+    <row r="4974">
+      <c r="A4974" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B4974" t="n">
+        <v>1.05036</v>
+      </c>
+      <c r="C4974" t="n">
+        <v>1.05518</v>
+      </c>
+      <c r="D4974" t="n">
+        <v>1.04999</v>
+      </c>
+      <c r="E4974" t="n">
+        <v>1.05468</v>
+      </c>
+      <c r="F4974" t="n">
+        <v>261253</v>
+      </c>
+    </row>
+    <row r="4975">
+      <c r="A4975" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B4975" t="n">
+        <v>1.05468</v>
+      </c>
+      <c r="C4975" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D4975" t="n">
+        <v>1.04821</v>
+      </c>
+      <c r="E4975" t="n">
+        <v>1.05844</v>
+      </c>
+      <c r="F4975" t="n">
+        <v>315089</v>
+      </c>
+    </row>
+    <row r="4976">
+      <c r="A4976" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B4976" t="n">
+        <v>1.05493</v>
+      </c>
+      <c r="C4976" t="n">
+        <v>1.05744</v>
+      </c>
+      <c r="D4976" t="n">
+        <v>1.05193</v>
+      </c>
+      <c r="E4976" t="n">
+        <v>1.05665</v>
+      </c>
+      <c r="F4976" t="n">
+        <v>229574</v>
+      </c>
+    </row>
+    <row r="4977">
+      <c r="A4977" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B4977" t="n">
+        <v>1.05665</v>
+      </c>
+      <c r="C4977" t="n">
+        <v>1.06197</v>
+      </c>
+      <c r="D4977" t="n">
+        <v>1.05543</v>
+      </c>
+      <c r="E4977" t="n">
+        <v>1.06051</v>
+      </c>
+      <c r="F4977" t="n">
+        <v>285371</v>
+      </c>
+    </row>
+    <row r="4978">
+      <c r="A4978" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B4978" t="n">
+        <v>1.06051</v>
+      </c>
+      <c r="C4978" t="n">
+        <v>1.06347</v>
+      </c>
+      <c r="D4978" t="n">
+        <v>1.05795</v>
+      </c>
+      <c r="E4978" t="n">
+        <v>1.06193</v>
+      </c>
+      <c r="F4978" t="n">
+        <v>275959</v>
+      </c>
+    </row>
+    <row r="4979">
+      <c r="A4979" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B4979" t="n">
+        <v>1.06193</v>
+      </c>
+      <c r="C4979" t="n">
+        <v>1.06396</v>
+      </c>
+      <c r="D4979" t="n">
+        <v>1.05256</v>
+      </c>
+      <c r="E4979" t="n">
+        <v>1.0528</v>
+      </c>
+      <c r="F4979" t="n">
+        <v>265275</v>
+      </c>
+    </row>
+    <row r="4980">
+      <c r="A4980" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B4980" t="n">
+        <v>1.0528</v>
+      </c>
+      <c r="C4980" t="n">
+        <v>1.05585</v>
+      </c>
+      <c r="D4980" t="n">
+        <v>1.04953</v>
+      </c>
+      <c r="E4980" t="n">
+        <v>1.05067</v>
+      </c>
+      <c r="F4980" t="n">
+        <v>260070</v>
+      </c>
+    </row>
+    <row r="4981">
+      <c r="A4981" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B4981" t="n">
+        <v>1.0514</v>
+      </c>
+      <c r="C4981" t="n">
+        <v>1.05627</v>
+      </c>
+      <c r="D4981" t="n">
+        <v>1.05084</v>
+      </c>
+      <c r="E4981" t="n">
+        <v>1.05602</v>
+      </c>
+      <c r="F4981" t="n">
+        <v>210351</v>
+      </c>
+    </row>
+    <row r="4982">
+      <c r="A4982" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B4982" t="n">
+        <v>1.05602</v>
+      </c>
+      <c r="C4982" t="n">
+        <v>1.05948</v>
+      </c>
+      <c r="D4982" t="n">
+        <v>1.05328</v>
+      </c>
+      <c r="E4982" t="n">
+        <v>1.05771</v>
+      </c>
+      <c r="F4982" t="n">
+        <v>251178</v>
+      </c>
+    </row>
+    <row r="4983">
+      <c r="A4983" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B4983" t="n">
+        <v>1.05771</v>
+      </c>
+      <c r="C4983" t="n">
+        <v>1.05942</v>
+      </c>
+      <c r="D4983" t="n">
+        <v>1.0523</v>
+      </c>
+      <c r="E4983" t="n">
+        <v>1.05365</v>
+      </c>
+      <c r="F4983" t="n">
+        <v>256268</v>
+      </c>
+    </row>
+    <row r="4984">
+      <c r="A4984" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B4984" t="n">
+        <v>1.05365</v>
+      </c>
+      <c r="C4984" t="n">
+        <v>1.06164</v>
+      </c>
+      <c r="D4984" t="n">
+        <v>1.05281</v>
+      </c>
+      <c r="E4984" t="n">
+        <v>1.05823</v>
+      </c>
+      <c r="F4984" t="n">
+        <v>647322</v>
+      </c>
+    </row>
+    <row r="4985">
+      <c r="A4985" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B4985" t="n">
+        <v>1.05823</v>
+      </c>
+      <c r="C4985" t="n">
+        <v>1.06037</v>
+      </c>
+      <c r="D4985" t="n">
+        <v>1.05648</v>
+      </c>
+      <c r="E4985" t="n">
+        <v>1.0593</v>
+      </c>
+      <c r="F4985" t="n">
+        <v>247647</v>
+      </c>
+    </row>
+    <row r="4986">
+      <c r="A4986" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B4986" t="n">
+        <v>1.0595</v>
+      </c>
+      <c r="C4986" t="n">
+        <v>1.06779</v>
+      </c>
+      <c r="D4986" t="n">
+        <v>1.05714</v>
+      </c>
+      <c r="E4986" t="n">
+        <v>1.06685</v>
+      </c>
+      <c r="F4986" t="n">
+        <v>214528</v>
+      </c>
+    </row>
+    <row r="4987">
+      <c r="A4987" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B4987" t="n">
+        <v>1.06685</v>
+      </c>
+      <c r="C4987" t="n">
+        <v>1.06872</v>
+      </c>
+      <c r="D4987" t="n">
+        <v>1.06644</v>
+      </c>
+      <c r="E4987" t="n">
+        <v>1.06861</v>
+      </c>
+      <c r="F4987" t="n">
+        <v>20252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4987"/>
+  <dimension ref="A1:F4992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100191,6 +100191,106 @@
         <v>20252</v>
       </c>
     </row>
+    <row r="4988">
+      <c r="A4988" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B4988" t="n">
+        <v>1.06685</v>
+      </c>
+      <c r="C4988" t="n">
+        <v>1.06945</v>
+      </c>
+      <c r="D4988" t="n">
+        <v>1.05829</v>
+      </c>
+      <c r="E4988" t="n">
+        <v>1.05895</v>
+      </c>
+      <c r="F4988" t="n">
+        <v>234555</v>
+      </c>
+    </row>
+    <row r="4989">
+      <c r="A4989" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B4989" t="n">
+        <v>1.05895</v>
+      </c>
+      <c r="C4989" t="n">
+        <v>1.06067</v>
+      </c>
+      <c r="D4989" t="n">
+        <v>1.05653</v>
+      </c>
+      <c r="E4989" t="n">
+        <v>1.05659</v>
+      </c>
+      <c r="F4989" t="n">
+        <v>209983</v>
+      </c>
+    </row>
+    <row r="4990">
+      <c r="A4990" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B4990" t="n">
+        <v>1.05659</v>
+      </c>
+      <c r="C4990" t="n">
+        <v>1.05692</v>
+      </c>
+      <c r="D4990" t="n">
+        <v>1.05211</v>
+      </c>
+      <c r="E4990" t="n">
+        <v>1.05621</v>
+      </c>
+      <c r="F4990" t="n">
+        <v>254124</v>
+      </c>
+    </row>
+    <row r="4991">
+      <c r="A4991" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B4991" t="n">
+        <v>1.05621</v>
+      </c>
+      <c r="C4991" t="n">
+        <v>1.0597</v>
+      </c>
+      <c r="D4991" t="n">
+        <v>1.05352</v>
+      </c>
+      <c r="E4991" t="n">
+        <v>1.05586</v>
+      </c>
+      <c r="F4991" t="n">
+        <v>230002</v>
+      </c>
+    </row>
+    <row r="4992">
+      <c r="A4992" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4992" t="n">
+        <v>1.05626</v>
+      </c>
+      <c r="C4992" t="n">
+        <v>1.05707</v>
+      </c>
+      <c r="D4992" t="n">
+        <v>1.05551</v>
+      </c>
+      <c r="E4992" t="n">
+        <v>1.05633</v>
+      </c>
+      <c r="F4992" t="n">
+        <v>20228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4992"/>
+  <dimension ref="A1:F5057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100291,6 +100291,1306 @@
         <v>20228</v>
       </c>
     </row>
+    <row r="4993">
+      <c r="A4993" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4993" t="n">
+        <v>1.05626</v>
+      </c>
+      <c r="C4993" t="n">
+        <v>1.05707</v>
+      </c>
+      <c r="D4993" t="n">
+        <v>1.05551</v>
+      </c>
+      <c r="E4993" t="n">
+        <v>1.05625</v>
+      </c>
+      <c r="F4993" t="n">
+        <v>11757</v>
+      </c>
+    </row>
+    <row r="4994">
+      <c r="A4994" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4994" t="n">
+        <v>1.05625</v>
+      </c>
+      <c r="C4994" t="n">
+        <v>1.05658</v>
+      </c>
+      <c r="D4994" t="n">
+        <v>1.05583</v>
+      </c>
+      <c r="E4994" t="n">
+        <v>1.05609</v>
+      </c>
+      <c r="F4994" t="n">
+        <v>15372</v>
+      </c>
+    </row>
+    <row r="4995">
+      <c r="A4995" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4995" t="n">
+        <v>1.05609</v>
+      </c>
+      <c r="C4995" t="n">
+        <v>1.05674</v>
+      </c>
+      <c r="D4995" t="n">
+        <v>1.05471</v>
+      </c>
+      <c r="E4995" t="n">
+        <v>1.05598</v>
+      </c>
+      <c r="F4995" t="n">
+        <v>29587</v>
+      </c>
+    </row>
+    <row r="4996">
+      <c r="A4996" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4996" t="n">
+        <v>1.05598</v>
+      </c>
+      <c r="C4996" t="n">
+        <v>1.06084</v>
+      </c>
+      <c r="D4996" t="n">
+        <v>1.05597</v>
+      </c>
+      <c r="E4996" t="n">
+        <v>1.06068</v>
+      </c>
+      <c r="F4996" t="n">
+        <v>41413</v>
+      </c>
+    </row>
+    <row r="4997">
+      <c r="A4997" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B4997" t="n">
+        <v>1.06068</v>
+      </c>
+      <c r="C4997" t="n">
+        <v>1.06253</v>
+      </c>
+      <c r="D4997" t="n">
+        <v>1.05908</v>
+      </c>
+      <c r="E4997" t="n">
+        <v>1.06071</v>
+      </c>
+      <c r="F4997" t="n">
+        <v>74171</v>
+      </c>
+    </row>
+    <row r="4998">
+      <c r="A4998" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B4998" t="n">
+        <v>1.06071</v>
+      </c>
+      <c r="C4998" t="n">
+        <v>1.06217</v>
+      </c>
+      <c r="D4998" t="n">
+        <v>1.06001</v>
+      </c>
+      <c r="E4998" t="n">
+        <v>1.0615</v>
+      </c>
+      <c r="F4998" t="n">
+        <v>22570</v>
+      </c>
+    </row>
+    <row r="4999">
+      <c r="A4999" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B4999" t="n">
+        <v>1.0615</v>
+      </c>
+      <c r="C4999" t="n">
+        <v>1.06172</v>
+      </c>
+      <c r="D4999" t="n">
+        <v>1.06093</v>
+      </c>
+      <c r="E4999" t="n">
+        <v>1.06115</v>
+      </c>
+      <c r="F4999" t="n">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="5000">
+      <c r="A5000" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B5000" t="n">
+        <v>1.06115</v>
+      </c>
+      <c r="C5000" t="n">
+        <v>1.06126</v>
+      </c>
+      <c r="D5000" t="n">
+        <v>1.05906</v>
+      </c>
+      <c r="E5000" t="n">
+        <v>1.05938</v>
+      </c>
+      <c r="F5000" t="n">
+        <v>28030</v>
+      </c>
+    </row>
+    <row r="5001">
+      <c r="A5001" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B5001" t="n">
+        <v>1.05938</v>
+      </c>
+      <c r="C5001" t="n">
+        <v>1.06458</v>
+      </c>
+      <c r="D5001" t="n">
+        <v>1.05926</v>
+      </c>
+      <c r="E5001" t="n">
+        <v>1.06453</v>
+      </c>
+      <c r="F5001" t="n">
+        <v>34443</v>
+      </c>
+    </row>
+    <row r="5002">
+      <c r="A5002" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B5002" t="n">
+        <v>1.06453</v>
+      </c>
+      <c r="C5002" t="n">
+        <v>1.06749</v>
+      </c>
+      <c r="D5002" t="n">
+        <v>1.06211</v>
+      </c>
+      <c r="E5002" t="n">
+        <v>1.06241</v>
+      </c>
+      <c r="F5002" t="n">
+        <v>60573</v>
+      </c>
+    </row>
+    <row r="5003">
+      <c r="A5003" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B5003" t="n">
+        <v>1.06241</v>
+      </c>
+      <c r="C5003" t="n">
+        <v>1.06257</v>
+      </c>
+      <c r="D5003" t="n">
+        <v>1.05574</v>
+      </c>
+      <c r="E5003" t="n">
+        <v>1.05675</v>
+      </c>
+      <c r="F5003" t="n">
+        <v>90552</v>
+      </c>
+    </row>
+    <row r="5004">
+      <c r="A5004" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B5004" t="n">
+        <v>1.05675</v>
+      </c>
+      <c r="C5004" t="n">
+        <v>1.05858</v>
+      </c>
+      <c r="D5004" t="n">
+        <v>1.05657</v>
+      </c>
+      <c r="E5004" t="n">
+        <v>1.05744</v>
+      </c>
+      <c r="F5004" t="n">
+        <v>29256</v>
+      </c>
+    </row>
+    <row r="5005">
+      <c r="A5005" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B5005" t="n">
+        <v>1.05744</v>
+      </c>
+      <c r="C5005" t="n">
+        <v>1.05806</v>
+      </c>
+      <c r="D5005" t="n">
+        <v>1.05685</v>
+      </c>
+      <c r="E5005" t="n">
+        <v>1.05733</v>
+      </c>
+      <c r="F5005" t="n">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="5006">
+      <c r="A5006" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B5006" t="n">
+        <v>1.05733</v>
+      </c>
+      <c r="C5006" t="n">
+        <v>1.05764</v>
+      </c>
+      <c r="D5006" t="n">
+        <v>1.05658</v>
+      </c>
+      <c r="E5006" t="n">
+        <v>1.05672</v>
+      </c>
+      <c r="F5006" t="n">
+        <v>18408</v>
+      </c>
+    </row>
+    <row r="5007">
+      <c r="A5007" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B5007" t="n">
+        <v>1.05672</v>
+      </c>
+      <c r="C5007" t="n">
+        <v>1.05775</v>
+      </c>
+      <c r="D5007" t="n">
+        <v>1.0557</v>
+      </c>
+      <c r="E5007" t="n">
+        <v>1.05582</v>
+      </c>
+      <c r="F5007" t="n">
+        <v>28917</v>
+      </c>
+    </row>
+    <row r="5008">
+      <c r="A5008" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B5008" t="n">
+        <v>1.05582</v>
+      </c>
+      <c r="C5008" t="n">
+        <v>1.05627</v>
+      </c>
+      <c r="D5008" t="n">
+        <v>1.05369</v>
+      </c>
+      <c r="E5008" t="n">
+        <v>1.05385</v>
+      </c>
+      <c r="F5008" t="n">
+        <v>47594</v>
+      </c>
+    </row>
+    <row r="5009">
+      <c r="A5009" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B5009" t="n">
+        <v>1.05385</v>
+      </c>
+      <c r="C5009" t="n">
+        <v>1.05708</v>
+      </c>
+      <c r="D5009" t="n">
+        <v>1.05215</v>
+      </c>
+      <c r="E5009" t="n">
+        <v>1.05338</v>
+      </c>
+      <c r="F5009" t="n">
+        <v>80800</v>
+      </c>
+    </row>
+    <row r="5010">
+      <c r="A5010" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B5010" t="n">
+        <v>1.05338</v>
+      </c>
+      <c r="C5010" t="n">
+        <v>1.05758</v>
+      </c>
+      <c r="D5010" t="n">
+        <v>1.05165</v>
+      </c>
+      <c r="E5010" t="n">
+        <v>1.05698</v>
+      </c>
+      <c r="F5010" t="n">
+        <v>91229</v>
+      </c>
+    </row>
+    <row r="5011">
+      <c r="A5011" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B5011" t="n">
+        <v>1.05698</v>
+      </c>
+      <c r="C5011" t="n">
+        <v>1.0602</v>
+      </c>
+      <c r="D5011" t="n">
+        <v>1.05645</v>
+      </c>
+      <c r="E5011" t="n">
+        <v>1.06017</v>
+      </c>
+      <c r="F5011" t="n">
+        <v>14401</v>
+      </c>
+    </row>
+    <row r="5012">
+      <c r="A5012" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B5012" t="n">
+        <v>1.06017</v>
+      </c>
+      <c r="C5012" t="n">
+        <v>1.06021</v>
+      </c>
+      <c r="D5012" t="n">
+        <v>1.05932</v>
+      </c>
+      <c r="E5012" t="n">
+        <v>1.05959</v>
+      </c>
+      <c r="F5012" t="n">
+        <v>17839</v>
+      </c>
+    </row>
+    <row r="5013">
+      <c r="A5013" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B5013" t="n">
+        <v>1.05959</v>
+      </c>
+      <c r="C5013" t="n">
+        <v>1.06103</v>
+      </c>
+      <c r="D5013" t="n">
+        <v>1.05911</v>
+      </c>
+      <c r="E5013" t="n">
+        <v>1.06005</v>
+      </c>
+      <c r="F5013" t="n">
+        <v>33717</v>
+      </c>
+    </row>
+    <row r="5014">
+      <c r="A5014" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B5014" t="n">
+        <v>1.06005</v>
+      </c>
+      <c r="C5014" t="n">
+        <v>1.06675</v>
+      </c>
+      <c r="D5014" t="n">
+        <v>1.0599</v>
+      </c>
+      <c r="E5014" t="n">
+        <v>1.06641</v>
+      </c>
+      <c r="F5014" t="n">
+        <v>59586</v>
+      </c>
+    </row>
+    <row r="5015">
+      <c r="A5015" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B5015" t="n">
+        <v>1.06641</v>
+      </c>
+      <c r="C5015" t="n">
+        <v>1.06668</v>
+      </c>
+      <c r="D5015" t="n">
+        <v>1.06104</v>
+      </c>
+      <c r="E5015" t="n">
+        <v>1.06153</v>
+      </c>
+      <c r="F5015" t="n">
+        <v>74056</v>
+      </c>
+    </row>
+    <row r="5016">
+      <c r="A5016" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B5016" t="n">
+        <v>1.06153</v>
+      </c>
+      <c r="C5016" t="n">
+        <v>1.06325</v>
+      </c>
+      <c r="D5016" t="n">
+        <v>1.06137</v>
+      </c>
+      <c r="E5016" t="n">
+        <v>1.06216</v>
+      </c>
+      <c r="F5016" t="n">
+        <v>27223</v>
+      </c>
+    </row>
+    <row r="5017">
+      <c r="A5017" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B5017" t="n">
+        <v>1.06216</v>
+      </c>
+      <c r="C5017" t="n">
+        <v>1.06237</v>
+      </c>
+      <c r="D5017" t="n">
+        <v>1.06145</v>
+      </c>
+      <c r="E5017" t="n">
+        <v>1.06181</v>
+      </c>
+      <c r="F5017" t="n">
+        <v>9552</v>
+      </c>
+    </row>
+    <row r="5018">
+      <c r="A5018" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B5018" t="n">
+        <v>1.06181</v>
+      </c>
+      <c r="C5018" t="n">
+        <v>1.06287</v>
+      </c>
+      <c r="D5018" t="n">
+        <v>1.06147</v>
+      </c>
+      <c r="E5018" t="n">
+        <v>1.06263</v>
+      </c>
+      <c r="F5018" t="n">
+        <v>14019</v>
+      </c>
+    </row>
+    <row r="5019">
+      <c r="A5019" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B5019" t="n">
+        <v>1.06263</v>
+      </c>
+      <c r="C5019" t="n">
+        <v>1.0634</v>
+      </c>
+      <c r="D5019" t="n">
+        <v>1.06197</v>
+      </c>
+      <c r="E5019" t="n">
+        <v>1.0627</v>
+      </c>
+      <c r="F5019" t="n">
+        <v>23544</v>
+      </c>
+    </row>
+    <row r="5020">
+      <c r="A5020" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B5020" t="n">
+        <v>1.0627</v>
+      </c>
+      <c r="C5020" t="n">
+        <v>1.07194</v>
+      </c>
+      <c r="D5020" t="n">
+        <v>1.06241</v>
+      </c>
+      <c r="E5020" t="n">
+        <v>1.07093</v>
+      </c>
+      <c r="F5020" t="n">
+        <v>59851</v>
+      </c>
+    </row>
+    <row r="5021">
+      <c r="A5021" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B5021" t="n">
+        <v>1.07093</v>
+      </c>
+      <c r="C5021" t="n">
+        <v>1.07393</v>
+      </c>
+      <c r="D5021" t="n">
+        <v>1.06935</v>
+      </c>
+      <c r="E5021" t="n">
+        <v>1.07392</v>
+      </c>
+      <c r="F5021" t="n">
+        <v>106662</v>
+      </c>
+    </row>
+    <row r="5022">
+      <c r="A5022" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B5022" t="n">
+        <v>1.07392</v>
+      </c>
+      <c r="C5022" t="n">
+        <v>1.07467</v>
+      </c>
+      <c r="D5022" t="n">
+        <v>1.07224</v>
+      </c>
+      <c r="E5022" t="n">
+        <v>1.07277</v>
+      </c>
+      <c r="F5022" t="n">
+        <v>26350</v>
+      </c>
+    </row>
+    <row r="5023">
+      <c r="A5023" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B5023" t="n">
+        <v>1.07215</v>
+      </c>
+      <c r="C5023" t="n">
+        <v>1.07335</v>
+      </c>
+      <c r="D5023" t="n">
+        <v>1.07215</v>
+      </c>
+      <c r="E5023" t="n">
+        <v>1.07283</v>
+      </c>
+      <c r="F5023" t="n">
+        <v>13826</v>
+      </c>
+    </row>
+    <row r="5024">
+      <c r="A5024" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B5024" t="n">
+        <v>1.07283</v>
+      </c>
+      <c r="C5024" t="n">
+        <v>1.07388</v>
+      </c>
+      <c r="D5024" t="n">
+        <v>1.07263</v>
+      </c>
+      <c r="E5024" t="n">
+        <v>1.07355</v>
+      </c>
+      <c r="F5024" t="n">
+        <v>14112</v>
+      </c>
+    </row>
+    <row r="5025">
+      <c r="A5025" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B5025" t="n">
+        <v>1.07355</v>
+      </c>
+      <c r="C5025" t="n">
+        <v>1.07563</v>
+      </c>
+      <c r="D5025" t="n">
+        <v>1.07315</v>
+      </c>
+      <c r="E5025" t="n">
+        <v>1.07471</v>
+      </c>
+      <c r="F5025" t="n">
+        <v>35364</v>
+      </c>
+    </row>
+    <row r="5026">
+      <c r="A5026" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B5026" t="n">
+        <v>1.07471</v>
+      </c>
+      <c r="C5026" t="n">
+        <v>1.07557</v>
+      </c>
+      <c r="D5026" t="n">
+        <v>1.0735</v>
+      </c>
+      <c r="E5026" t="n">
+        <v>1.07374</v>
+      </c>
+      <c r="F5026" t="n">
+        <v>34867</v>
+      </c>
+    </row>
+    <row r="5027">
+      <c r="A5027" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B5027" t="n">
+        <v>1.07374</v>
+      </c>
+      <c r="C5027" t="n">
+        <v>1.07493</v>
+      </c>
+      <c r="D5027" t="n">
+        <v>1.0726</v>
+      </c>
+      <c r="E5027" t="n">
+        <v>1.07354</v>
+      </c>
+      <c r="F5027" t="n">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="5028">
+      <c r="A5028" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B5028" t="n">
+        <v>1.07354</v>
+      </c>
+      <c r="C5028" t="n">
+        <v>1.0737</v>
+      </c>
+      <c r="D5028" t="n">
+        <v>1.07163</v>
+      </c>
+      <c r="E5028" t="n">
+        <v>1.07172</v>
+      </c>
+      <c r="F5028" t="n">
+        <v>22305</v>
+      </c>
+    </row>
+    <row r="5029">
+      <c r="A5029" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B5029" t="n">
+        <v>1.07172</v>
+      </c>
+      <c r="C5029" t="n">
+        <v>1.07221</v>
+      </c>
+      <c r="D5029" t="n">
+        <v>1.07079</v>
+      </c>
+      <c r="E5029" t="n">
+        <v>1.07103</v>
+      </c>
+      <c r="F5029" t="n">
+        <v>12130</v>
+      </c>
+    </row>
+    <row r="5030">
+      <c r="A5030" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B5030" t="n">
+        <v>1.07103</v>
+      </c>
+      <c r="C5030" t="n">
+        <v>1.0714</v>
+      </c>
+      <c r="D5030" t="n">
+        <v>1.07052</v>
+      </c>
+      <c r="E5030" t="n">
+        <v>1.07104</v>
+      </c>
+      <c r="F5030" t="n">
+        <v>16241</v>
+      </c>
+    </row>
+    <row r="5031">
+      <c r="A5031" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B5031" t="n">
+        <v>1.07104</v>
+      </c>
+      <c r="C5031" t="n">
+        <v>1.07116</v>
+      </c>
+      <c r="D5031" t="n">
+        <v>1.0683</v>
+      </c>
+      <c r="E5031" t="n">
+        <v>1.06836</v>
+      </c>
+      <c r="F5031" t="n">
+        <v>34146</v>
+      </c>
+    </row>
+    <row r="5032">
+      <c r="A5032" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B5032" t="n">
+        <v>1.06836</v>
+      </c>
+      <c r="C5032" t="n">
+        <v>1.06976</v>
+      </c>
+      <c r="D5032" t="n">
+        <v>1.06655</v>
+      </c>
+      <c r="E5032" t="n">
+        <v>1.06759</v>
+      </c>
+      <c r="F5032" t="n">
+        <v>41765</v>
+      </c>
+    </row>
+    <row r="5033">
+      <c r="A5033" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B5033" t="n">
+        <v>1.06759</v>
+      </c>
+      <c r="C5033" t="n">
+        <v>1.06928</v>
+      </c>
+      <c r="D5033" t="n">
+        <v>1.0664</v>
+      </c>
+      <c r="E5033" t="n">
+        <v>1.06773</v>
+      </c>
+      <c r="F5033" t="n">
+        <v>52990</v>
+      </c>
+    </row>
+    <row r="5034">
+      <c r="A5034" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B5034" t="n">
+        <v>1.06773</v>
+      </c>
+      <c r="C5034" t="n">
+        <v>1.07048</v>
+      </c>
+      <c r="D5034" t="n">
+        <v>1.0676</v>
+      </c>
+      <c r="E5034" t="n">
+        <v>1.06997</v>
+      </c>
+      <c r="F5034" t="n">
+        <v>24363</v>
+      </c>
+    </row>
+    <row r="5035">
+      <c r="A5035" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B5035" t="n">
+        <v>1.06997</v>
+      </c>
+      <c r="C5035" t="n">
+        <v>1.06998</v>
+      </c>
+      <c r="D5035" t="n">
+        <v>1.06863</v>
+      </c>
+      <c r="E5035" t="n">
+        <v>1.06918</v>
+      </c>
+      <c r="F5035" t="n">
+        <v>13102</v>
+      </c>
+    </row>
+    <row r="5036">
+      <c r="A5036" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B5036" t="n">
+        <v>1.06918</v>
+      </c>
+      <c r="C5036" t="n">
+        <v>1.06991</v>
+      </c>
+      <c r="D5036" t="n">
+        <v>1.06853</v>
+      </c>
+      <c r="E5036" t="n">
+        <v>1.06861</v>
+      </c>
+      <c r="F5036" t="n">
+        <v>15441</v>
+      </c>
+    </row>
+    <row r="5037">
+      <c r="A5037" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B5037" t="n">
+        <v>1.06861</v>
+      </c>
+      <c r="C5037" t="n">
+        <v>1.0688</v>
+      </c>
+      <c r="D5037" t="n">
+        <v>1.06602</v>
+      </c>
+      <c r="E5037" t="n">
+        <v>1.06651</v>
+      </c>
+      <c r="F5037" t="n">
+        <v>33518</v>
+      </c>
+    </row>
+    <row r="5038">
+      <c r="A5038" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B5038" t="n">
+        <v>1.06651</v>
+      </c>
+      <c r="C5038" t="n">
+        <v>1.06778</v>
+      </c>
+      <c r="D5038" t="n">
+        <v>1.06592</v>
+      </c>
+      <c r="E5038" t="n">
+        <v>1.06692</v>
+      </c>
+      <c r="F5038" t="n">
+        <v>35547</v>
+      </c>
+    </row>
+    <row r="5039">
+      <c r="A5039" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B5039" t="n">
+        <v>1.06692</v>
+      </c>
+      <c r="C5039" t="n">
+        <v>1.0716</v>
+      </c>
+      <c r="D5039" t="n">
+        <v>1.06689</v>
+      </c>
+      <c r="E5039" t="n">
+        <v>1.07077</v>
+      </c>
+      <c r="F5039" t="n">
+        <v>55068</v>
+      </c>
+    </row>
+    <row r="5040">
+      <c r="A5040" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B5040" t="n">
+        <v>1.07077</v>
+      </c>
+      <c r="C5040" t="n">
+        <v>1.07141</v>
+      </c>
+      <c r="D5040" t="n">
+        <v>1.06999</v>
+      </c>
+      <c r="E5040" t="n">
+        <v>1.0709</v>
+      </c>
+      <c r="F5040" t="n">
+        <v>26556</v>
+      </c>
+    </row>
+    <row r="5041">
+      <c r="A5041" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B5041" t="n">
+        <v>1.0709</v>
+      </c>
+      <c r="C5041" t="n">
+        <v>1.07146</v>
+      </c>
+      <c r="D5041" t="n">
+        <v>1.07023</v>
+      </c>
+      <c r="E5041" t="n">
+        <v>1.0712</v>
+      </c>
+      <c r="F5041" t="n">
+        <v>12311</v>
+      </c>
+    </row>
+    <row r="5042">
+      <c r="A5042" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B5042" t="n">
+        <v>1.0712</v>
+      </c>
+      <c r="C5042" t="n">
+        <v>1.07156</v>
+      </c>
+      <c r="D5042" t="n">
+        <v>1.07021</v>
+      </c>
+      <c r="E5042" t="n">
+        <v>1.07025</v>
+      </c>
+      <c r="F5042" t="n">
+        <v>13604</v>
+      </c>
+    </row>
+    <row r="5043">
+      <c r="A5043" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B5043" t="n">
+        <v>1.07025</v>
+      </c>
+      <c r="C5043" t="n">
+        <v>1.07097</v>
+      </c>
+      <c r="D5043" t="n">
+        <v>1.06934</v>
+      </c>
+      <c r="E5043" t="n">
+        <v>1.06977</v>
+      </c>
+      <c r="F5043" t="n">
+        <v>31167</v>
+      </c>
+    </row>
+    <row r="5044">
+      <c r="A5044" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B5044" t="n">
+        <v>1.06977</v>
+      </c>
+      <c r="C5044" t="n">
+        <v>1.07088</v>
+      </c>
+      <c r="D5044" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="E5044" t="n">
+        <v>1.07075</v>
+      </c>
+      <c r="F5044" t="n">
+        <v>39342</v>
+      </c>
+    </row>
+    <row r="5045">
+      <c r="A5045" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5045" t="n">
+        <v>1.07075</v>
+      </c>
+      <c r="C5045" t="n">
+        <v>1.07255</v>
+      </c>
+      <c r="D5045" t="n">
+        <v>1.06998</v>
+      </c>
+      <c r="E5045" t="n">
+        <v>1.07047</v>
+      </c>
+      <c r="F5045" t="n">
+        <v>56595</v>
+      </c>
+    </row>
+    <row r="5046">
+      <c r="A5046" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5046" t="n">
+        <v>1.07047</v>
+      </c>
+      <c r="C5046" t="n">
+        <v>1.07056</v>
+      </c>
+      <c r="D5046" t="n">
+        <v>1.06601</v>
+      </c>
+      <c r="E5046" t="n">
+        <v>1.06673</v>
+      </c>
+      <c r="F5046" t="n">
+        <v>64566</v>
+      </c>
+    </row>
+    <row r="5047">
+      <c r="A5047" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5047" t="n">
+        <v>1.06673</v>
+      </c>
+      <c r="C5047" t="n">
+        <v>1.06704</v>
+      </c>
+      <c r="D5047" t="n">
+        <v>1.06641</v>
+      </c>
+      <c r="E5047" t="n">
+        <v>1.06653</v>
+      </c>
+      <c r="F5047" t="n">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="5048">
+      <c r="A5048" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5048" t="n">
+        <v>1.07075</v>
+      </c>
+      <c r="C5048" t="n">
+        <v>1.07255</v>
+      </c>
+      <c r="D5048" t="n">
+        <v>1.06998</v>
+      </c>
+      <c r="E5048" t="n">
+        <v>1.07047</v>
+      </c>
+      <c r="F5048" t="n">
+        <v>56603</v>
+      </c>
+    </row>
+    <row r="5049">
+      <c r="A5049" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5049" t="n">
+        <v>1.07047</v>
+      </c>
+      <c r="C5049" t="n">
+        <v>1.07056</v>
+      </c>
+      <c r="D5049" t="n">
+        <v>1.06601</v>
+      </c>
+      <c r="E5049" t="n">
+        <v>1.06673</v>
+      </c>
+      <c r="F5049" t="n">
+        <v>64726</v>
+      </c>
+    </row>
+    <row r="5050">
+      <c r="A5050" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5050" t="n">
+        <v>1.06673</v>
+      </c>
+      <c r="C5050" t="n">
+        <v>1.06751</v>
+      </c>
+      <c r="D5050" t="n">
+        <v>1.06629</v>
+      </c>
+      <c r="E5050" t="n">
+        <v>1.0672</v>
+      </c>
+      <c r="F5050" t="n">
+        <v>13983</v>
+      </c>
+    </row>
+    <row r="5051">
+      <c r="A5051" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5051" t="n">
+        <v>1.0672</v>
+      </c>
+      <c r="C5051" t="n">
+        <v>1.06744</v>
+      </c>
+      <c r="D5051" t="n">
+        <v>1.06657</v>
+      </c>
+      <c r="E5051" t="n">
+        <v>1.0669</v>
+      </c>
+      <c r="F5051" t="n">
+        <v>13820</v>
+      </c>
+    </row>
+    <row r="5052">
+      <c r="A5052" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5052" t="n">
+        <v>1.0669</v>
+      </c>
+      <c r="C5052" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="D5052" t="n">
+        <v>1.06561</v>
+      </c>
+      <c r="E5052" t="n">
+        <v>1.06772</v>
+      </c>
+      <c r="F5052" t="n">
+        <v>35112</v>
+      </c>
+    </row>
+    <row r="5053">
+      <c r="A5053" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5053" t="n">
+        <v>1.06772</v>
+      </c>
+      <c r="C5053" t="n">
+        <v>1.06928</v>
+      </c>
+      <c r="D5053" t="n">
+        <v>1.06693</v>
+      </c>
+      <c r="E5053" t="n">
+        <v>1.06887</v>
+      </c>
+      <c r="F5053" t="n">
+        <v>38382</v>
+      </c>
+    </row>
+    <row r="5054">
+      <c r="A5054" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="B5054" t="n">
+        <v>1.06887</v>
+      </c>
+      <c r="C5054" t="n">
+        <v>1.06896</v>
+      </c>
+      <c r="D5054" t="n">
+        <v>1.06623</v>
+      </c>
+      <c r="E5054" t="n">
+        <v>1.06792</v>
+      </c>
+      <c r="F5054" t="n">
+        <v>56460</v>
+      </c>
+    </row>
+    <row r="5055">
+      <c r="A5055" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="B5055" t="n">
+        <v>1.06792</v>
+      </c>
+      <c r="C5055" t="n">
+        <v>1.06875</v>
+      </c>
+      <c r="D5055" t="n">
+        <v>1.06729</v>
+      </c>
+      <c r="E5055" t="n">
+        <v>1.06842</v>
+      </c>
+      <c r="F5055" t="n">
+        <v>20019</v>
+      </c>
+    </row>
+    <row r="5056">
+      <c r="A5056" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B5056" t="n">
+        <v>1.0683</v>
+      </c>
+      <c r="C5056" t="n">
+        <v>1.06907</v>
+      </c>
+      <c r="D5056" t="n">
+        <v>1.06805</v>
+      </c>
+      <c r="E5056" t="n">
+        <v>1.06867</v>
+      </c>
+      <c r="F5056" t="n">
+        <v>13886</v>
+      </c>
+    </row>
+    <row r="5057">
+      <c r="A5057" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B5057" t="n">
+        <v>1.06867</v>
+      </c>
+      <c r="C5057" t="n">
+        <v>1.06873</v>
+      </c>
+      <c r="D5057" t="n">
+        <v>1.06814</v>
+      </c>
+      <c r="E5057" t="n">
+        <v>1.06855</v>
+      </c>
+      <c r="F5057" t="n">
+        <v>6473</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5067"/>
+  <dimension ref="A1:F5072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101741,6 +101741,106 @@
         <v>5219</v>
       </c>
     </row>
+    <row r="5068" spans="1:6">
+      <c r="A5068" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B5068">
+        <v>1.0902</v>
+      </c>
+      <c r="C5068">
+        <v>1.09487</v>
+      </c>
+      <c r="D5068">
+        <v>1.0895</v>
+      </c>
+      <c r="E5068">
+        <v>1.09328</v>
+      </c>
+      <c r="F5068">
+        <v>151352</v>
+      </c>
+    </row>
+    <row r="5069" spans="1:6">
+      <c r="A5069" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B5069">
+        <v>1.09432</v>
+      </c>
+      <c r="C5069">
+        <v>1.09591</v>
+      </c>
+      <c r="D5069">
+        <v>1.09248</v>
+      </c>
+      <c r="E5069">
+        <v>1.09535</v>
+      </c>
+      <c r="F5069">
+        <v>173540</v>
+      </c>
+    </row>
+    <row r="5070" spans="1:6">
+      <c r="A5070" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B5070">
+        <v>1.09535</v>
+      </c>
+      <c r="C5070">
+        <v>1.10089</v>
+      </c>
+      <c r="D5070">
+        <v>1.09344</v>
+      </c>
+      <c r="E5070">
+        <v>1.09926</v>
+      </c>
+      <c r="F5070">
+        <v>218082</v>
+      </c>
+    </row>
+    <row r="5071" spans="1:6">
+      <c r="A5071" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B5071">
+        <v>1.09926</v>
+      </c>
+      <c r="C5071">
+        <v>1.10171</v>
+      </c>
+      <c r="D5071">
+        <v>1.096</v>
+      </c>
+      <c r="E5071">
+        <v>1.09692</v>
+      </c>
+      <c r="F5071">
+        <v>233477</v>
+      </c>
+    </row>
+    <row r="5072" spans="1:6">
+      <c r="A5072" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B5072">
+        <v>1.09692</v>
+      </c>
+      <c r="C5072">
+        <v>1.09839</v>
+      </c>
+      <c r="D5072">
+        <v>1.09684</v>
+      </c>
+      <c r="E5072">
+        <v>1.09834</v>
+      </c>
+      <c r="F5072">
+        <v>5955</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5072"/>
+  <dimension ref="A1:F5082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101841,6 +101841,206 @@
         <v>5955</v>
       </c>
     </row>
+    <row r="5073" spans="1:6">
+      <c r="A5073" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B5073">
+        <v>1.09692</v>
+      </c>
+      <c r="C5073">
+        <v>1.09839</v>
+      </c>
+      <c r="D5073">
+        <v>1.08792</v>
+      </c>
+      <c r="E5073">
+        <v>1.08851</v>
+      </c>
+      <c r="F5073">
+        <v>256503</v>
+      </c>
+    </row>
+    <row r="5074" spans="1:6">
+      <c r="A5074" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B5074">
+        <v>1.08851</v>
+      </c>
+      <c r="C5074">
+        <v>1.09127</v>
+      </c>
+      <c r="D5074">
+        <v>1.08286</v>
+      </c>
+      <c r="E5074">
+        <v>1.08789</v>
+      </c>
+      <c r="F5074">
+        <v>260007</v>
+      </c>
+    </row>
+    <row r="5075" spans="1:6">
+      <c r="A5075" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B5075">
+        <v>1.08851</v>
+      </c>
+      <c r="C5075">
+        <v>1.09127</v>
+      </c>
+      <c r="D5075">
+        <v>1.08286</v>
+      </c>
+      <c r="E5075">
+        <v>1.08789</v>
+      </c>
+      <c r="F5075">
+        <v>260007</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:6">
+      <c r="A5076" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B5076">
+        <v>1.08851</v>
+      </c>
+      <c r="C5076">
+        <v>1.09127</v>
+      </c>
+      <c r="D5076">
+        <v>1.08286</v>
+      </c>
+      <c r="E5076">
+        <v>1.08789</v>
+      </c>
+      <c r="F5076">
+        <v>268965</v>
+      </c>
+    </row>
+    <row r="5077" spans="1:6">
+      <c r="A5077" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B5077">
+        <v>1.08745</v>
+      </c>
+      <c r="C5077">
+        <v>1.08949</v>
+      </c>
+      <c r="D5077">
+        <v>1.0804</v>
+      </c>
+      <c r="E5077">
+        <v>1.08358</v>
+      </c>
+      <c r="F5077">
+        <v>228988</v>
+      </c>
+    </row>
+    <row r="5078" spans="1:6">
+      <c r="A5078" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B5078">
+        <v>1.08358</v>
+      </c>
+      <c r="C5078">
+        <v>1.08475</v>
+      </c>
+      <c r="D5078">
+        <v>1.07781</v>
+      </c>
+      <c r="E5078">
+        <v>1.0796</v>
+      </c>
+      <c r="F5078">
+        <v>245348</v>
+      </c>
+    </row>
+    <row r="5079" spans="1:6">
+      <c r="A5079" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B5079">
+        <v>1.0796</v>
+      </c>
+      <c r="C5079">
+        <v>1.08017</v>
+      </c>
+      <c r="D5079">
+        <v>1.07873</v>
+      </c>
+      <c r="E5079">
+        <v>1.07918</v>
+      </c>
+      <c r="F5079">
+        <v>32744</v>
+      </c>
+    </row>
+    <row r="5080" spans="1:6">
+      <c r="A5080" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B5080">
+        <v>1.0796</v>
+      </c>
+      <c r="C5080">
+        <v>1.08047</v>
+      </c>
+      <c r="D5080">
+        <v>1.07586</v>
+      </c>
+      <c r="E5080">
+        <v>1.07641</v>
+      </c>
+      <c r="F5080">
+        <v>202106</v>
+      </c>
+    </row>
+    <row r="5081" spans="1:6">
+      <c r="A5081" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B5081">
+        <v>1.07641</v>
+      </c>
+      <c r="C5081">
+        <v>1.08177</v>
+      </c>
+      <c r="D5081">
+        <v>1.0755</v>
+      </c>
+      <c r="E5081">
+        <v>1.07935</v>
+      </c>
+      <c r="F5081">
+        <v>257696</v>
+      </c>
+    </row>
+    <row r="5082" spans="1:6">
+      <c r="A5082" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B5082">
+        <v>1.07935</v>
+      </c>
+      <c r="C5082">
+        <v>1.08007</v>
+      </c>
+      <c r="D5082">
+        <v>1.07822</v>
+      </c>
+      <c r="E5082">
+        <v>1.07862</v>
+      </c>
+      <c r="F5082">
+        <v>54090</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/EURUSD.xlsx
+++ b/GlobalReserves/FXData/EURUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5082"/>
+  <dimension ref="A1:F5104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -102041,6 +102041,446 @@
         <v>54090</v>
       </c>
     </row>
+    <row r="5083" spans="1:6">
+      <c r="A5083" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B5083">
+        <v>1.07935</v>
+      </c>
+      <c r="C5083">
+        <v>1.08007</v>
+      </c>
+      <c r="D5083">
+        <v>1.07238</v>
+      </c>
+      <c r="E5083">
+        <v>1.07588</v>
+      </c>
+      <c r="F5083">
+        <v>285666</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:6">
+      <c r="A5084" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B5084">
+        <v>1.07585</v>
+      </c>
+      <c r="C5084">
+        <v>1.0779</v>
+      </c>
+      <c r="D5084">
+        <v>1.07415</v>
+      </c>
+      <c r="E5084">
+        <v>1.07645</v>
+      </c>
+      <c r="F5084">
+        <v>182442</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:6">
+      <c r="A5085" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B5085">
+        <v>1.07645</v>
+      </c>
+      <c r="C5085">
+        <v>1.08277</v>
+      </c>
+      <c r="D5085">
+        <v>1.07582</v>
+      </c>
+      <c r="E5085">
+        <v>1.07941</v>
+      </c>
+      <c r="F5085">
+        <v>217115</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:6">
+      <c r="A5086" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B5086">
+        <v>1.07941</v>
+      </c>
+      <c r="C5086">
+        <v>1.08966</v>
+      </c>
+      <c r="D5086">
+        <v>1.0773</v>
+      </c>
+      <c r="E5086">
+        <v>1.08739</v>
+      </c>
+      <c r="F5086">
+        <v>257584</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:6">
+      <c r="A5087" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B5087">
+        <v>1.08739</v>
+      </c>
+      <c r="C5087">
+        <v>1.10093</v>
+      </c>
+      <c r="D5087">
+        <v>1.08698</v>
+      </c>
+      <c r="E5087">
+        <v>1.0992</v>
+      </c>
+      <c r="F5087">
+        <v>349164</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:6">
+      <c r="A5088" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B5088">
+        <v>1.0992</v>
+      </c>
+      <c r="C5088">
+        <v>1.10037</v>
+      </c>
+      <c r="D5088">
+        <v>1.08884</v>
+      </c>
+      <c r="E5088">
+        <v>1.08937</v>
+      </c>
+      <c r="F5088">
+        <v>267753</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:6">
+      <c r="A5089" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B5089">
+        <v>1.08968</v>
+      </c>
+      <c r="C5089">
+        <v>1.08999</v>
+      </c>
+      <c r="D5089">
+        <v>1.08918</v>
+      </c>
+      <c r="E5089">
+        <v>1.08989</v>
+      </c>
+      <c r="F5089">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:6">
+      <c r="A5090" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B5090">
+        <v>1.08968</v>
+      </c>
+      <c r="C5090">
+        <v>1.10401</v>
+      </c>
+      <c r="D5090">
+        <v>1.08918</v>
+      </c>
+      <c r="E5090">
+        <v>1.1014</v>
+      </c>
+      <c r="F5090">
+        <v>1065936</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:6">
+      <c r="A5091" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5091">
+        <v>1.1019</v>
+      </c>
+      <c r="C5091">
+        <v>1.1019</v>
+      </c>
+      <c r="D5091">
+        <v>1.1005</v>
+      </c>
+      <c r="E5091">
+        <v>1.10073</v>
+      </c>
+      <c r="F5091">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:6">
+      <c r="A5092" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5092">
+        <v>1.1019</v>
+      </c>
+      <c r="C5092">
+        <v>1.1019</v>
+      </c>
+      <c r="D5092">
+        <v>1.1005</v>
+      </c>
+      <c r="E5092">
+        <v>1.10073</v>
+      </c>
+      <c r="F5092">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:6">
+      <c r="A5093" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5093">
+        <v>1.1019</v>
+      </c>
+      <c r="C5093">
+        <v>1.1019</v>
+      </c>
+      <c r="D5093">
+        <v>1.1005</v>
+      </c>
+      <c r="E5093">
+        <v>1.10073</v>
+      </c>
+      <c r="F5093">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:6">
+      <c r="A5094" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5094">
+        <v>1.1019</v>
+      </c>
+      <c r="C5094">
+        <v>1.10272</v>
+      </c>
+      <c r="D5094">
+        <v>1.1005</v>
+      </c>
+      <c r="E5094">
+        <v>1.10233</v>
+      </c>
+      <c r="F5094">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:6">
+      <c r="A5095" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5095">
+        <v>1.1019</v>
+      </c>
+      <c r="C5095">
+        <v>1.10272</v>
+      </c>
+      <c r="D5095">
+        <v>1.1005</v>
+      </c>
+      <c r="E5095">
+        <v>1.10103</v>
+      </c>
+      <c r="F5095">
+        <v>16035</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:6">
+      <c r="A5096" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5096">
+        <v>1.1019</v>
+      </c>
+      <c r="C5096">
+        <v>1.10451</v>
+      </c>
+      <c r="D5096">
+        <v>1.1005</v>
+      </c>
+      <c r="E5096">
+        <v>1.10377</v>
+      </c>
+      <c r="F5096">
+        <v>89074</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:6">
+      <c r="A5097" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5097">
+        <v>1.1019</v>
+      </c>
+      <c r="C5097">
+        <v>1.10451</v>
+      </c>
+      <c r="D5097">
+        <v>1.1005</v>
+      </c>
+      <c r="E5097">
+        <v>1.10373</v>
+      </c>
+      <c r="F5097">
+        <v>89241</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:6">
+      <c r="A5098" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5098">
+        <v>1.1019</v>
+      </c>
+      <c r="C5098">
+        <v>1.10469</v>
+      </c>
+      <c r="D5098">
+        <v>1.1005</v>
+      </c>
+      <c r="E5098">
+        <v>1.10468</v>
+      </c>
+      <c r="F5098">
+        <v>109545</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:6">
+      <c r="A5099" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5099">
+        <v>1.1019</v>
+      </c>
+      <c r="C5099">
+        <v>1.10469</v>
+      </c>
+      <c r="D5099">
+        <v>1.1005</v>
+      </c>
+      <c r="E5099">
+        <v>1.10463</v>
+      </c>
+      <c r="F5099">
+        <v>109813</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:6">
+      <c r="A5100" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5100">
+        <v>1.1019</v>
+      </c>
+      <c r="C5100">
+        <v>1.1048</v>
+      </c>
+      <c r="D5100">
+        <v>1.1005</v>
+      </c>
+      <c r="E5100">
+        <v>1.10469</v>
+      </c>
+      <c r="F5100">
+        <v>110098</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:6">
+      <c r="A5101" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5101">
+        <v>1.1019</v>
+      </c>
+      <c r="C5101">
+        <v>1.11227</v>
+      </c>
+      <c r="D5101">
+        <v>1.1005</v>
+      </c>
+      <c r="E5101">
+        <v>1.11061</v>
+      </c>
+      <c r="F5101">
+        <v>229317</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:6">
+      <c r="A5102" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5102">
+        <v>1.1019</v>
+      </c>
+      <c r="C5102">
+        <v>1.11227</v>
+      </c>
+      <c r="D5102">
+        <v>1.1005</v>
+      </c>
+      <c r="E5102">
+        <v>1.11064</v>
+      </c>
+      <c r="F5102">
+        <v>229621</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:6">
+      <c r="A5103" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5103">
+        <v>1.1019</v>
+      </c>
+      <c r="C5103">
+        <v>1.11393</v>
+      </c>
+      <c r="D5103">
+        <v>1.1005</v>
+      </c>
+      <c r="E5103">
+        <v>1.10375</v>
+      </c>
+      <c r="F5103">
+        <v>599849</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:6">
+      <c r="A5104" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5104">
+        <v>1.1019</v>
+      </c>
+      <c r="C5104">
+        <v>1.11393</v>
+      </c>
+      <c r="D5104">
+        <v>1.1005</v>
+      </c>
+      <c r="E5104">
+        <v>1.10375</v>
+      </c>
+      <c r="F5104">
+        <v>599849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
